--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM® Health Data Connect bundle used to package Common Data Model practitioner resources for data ingestion</t>
+    <t>Health Data Connect bundle used to package Common Data Model practitioner resources for data ingestion</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1327,44 +1327,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.6875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.69140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,45 +271,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Bundle.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Bundle.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Bundle.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Bundle.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -360,10 +364,6 @@
   </si>
   <si>
     <t>Bundle.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1841,13 +1841,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1898,7 +1898,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1916,7 +1916,7 @@
         <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -1927,11 +1927,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1950,16 +1950,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1997,19 +1997,19 @@
         <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2021,13 +2021,13 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2061,7 +2061,7 @@
         <v>84</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>114</v>
@@ -3504,13 +3504,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3561,7 +3561,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3579,7 +3579,7 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3613,16 +3613,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3672,7 +3672,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3684,13 +3684,13 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3724,7 +3724,7 @@
         <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>203</v>
@@ -3733,7 +3733,7 @@
         <v>204</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>205</v>
@@ -3797,7 +3797,7 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
@@ -3837,7 +3837,7 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>208</v>
@@ -4109,7 +4109,7 @@
         <v>84</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>213</v>
@@ -4164,13 +4164,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4221,7 +4221,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4239,7 +4239,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4273,16 +4273,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4332,7 +4332,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4344,13 +4344,13 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4384,7 +4384,7 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>203</v>
@@ -4393,7 +4393,7 @@
         <v>204</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>205</v>
@@ -4457,7 +4457,7 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4935,13 +4935,13 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4992,7 +4992,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5010,7 +5010,7 @@
         <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5044,16 +5044,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5103,7 +5103,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5115,13 +5115,13 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5155,7 +5155,7 @@
         <v>84</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>203</v>
@@ -5164,7 +5164,7 @@
         <v>204</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>205</v>
@@ -5228,7 +5228,7 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>74</v>
@@ -5599,13 +5599,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5656,7 +5656,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5674,7 +5674,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5708,16 +5708,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5767,7 +5767,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5779,13 +5779,13 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5819,7 +5819,7 @@
         <v>84</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>203</v>
@@ -5828,7 +5828,7 @@
         <v>204</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>205</v>
@@ -5892,7 +5892,7 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
@@ -6152,7 +6152,7 @@
         <v>84</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>269</v>
@@ -6370,7 +6370,7 @@
         <v>84</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>274</v>
@@ -6479,7 +6479,7 @@
         <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>277</v>
@@ -6697,13 +6697,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6754,7 +6754,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6772,7 +6772,7 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6806,16 +6806,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6865,7 +6865,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6877,13 +6877,13 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6917,7 +6917,7 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>203</v>
@@ -6926,7 +6926,7 @@
         <v>204</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>205</v>
@@ -6990,7 +6990,7 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
@@ -7030,7 +7030,7 @@
         <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>287</v>
@@ -7248,7 +7248,7 @@
         <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>293</v>
@@ -7692,13 +7692,13 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7749,7 +7749,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -7767,7 +7767,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7801,16 +7801,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7860,7 +7860,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7872,13 +7872,13 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -7912,7 +7912,7 @@
         <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>203</v>
@@ -7921,7 +7921,7 @@
         <v>204</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>205</v>
@@ -7985,7 +7985,7 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
@@ -8463,13 +8463,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8520,7 +8520,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8538,7 +8538,7 @@
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8572,16 +8572,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8631,7 +8631,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8643,13 +8643,13 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -8683,7 +8683,7 @@
         <v>84</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>203</v>
@@ -8692,7 +8692,7 @@
         <v>204</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>205</v>
@@ -8756,7 +8756,7 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
@@ -9127,13 +9127,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9184,7 +9184,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9202,7 +9202,7 @@
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9217,7 +9217,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9236,16 +9236,16 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9295,7 +9295,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9307,13 +9307,13 @@
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9347,7 +9347,7 @@
         <v>84</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>203</v>
@@ -9356,7 +9356,7 @@
         <v>204</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>205</v>
@@ -9420,7 +9420,7 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>74</v>
@@ -9680,7 +9680,7 @@
         <v>84</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>269</v>
@@ -9898,7 +9898,7 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>274</v>
@@ -10007,7 +10007,7 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>277</v>
@@ -10225,13 +10225,13 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10282,7 +10282,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10300,7 +10300,7 @@
         <v>74</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10334,16 +10334,16 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10393,7 +10393,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10405,13 +10405,13 @@
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -10445,7 +10445,7 @@
         <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>203</v>
@@ -10454,7 +10454,7 @@
         <v>204</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>205</v>
@@ -10518,7 +10518,7 @@
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
@@ -10558,7 +10558,7 @@
         <v>84</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>287</v>
@@ -10776,7 +10776,7 @@
         <v>84</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>293</v>
@@ -11220,13 +11220,13 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11277,7 +11277,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -11295,7 +11295,7 @@
         <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -11310,7 +11310,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11329,16 +11329,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11388,7 +11388,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11400,13 +11400,13 @@
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -11440,7 +11440,7 @@
         <v>84</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>203</v>
@@ -11449,7 +11449,7 @@
         <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N92" t="s" s="2">
         <v>205</v>
@@ -11513,7 +11513,7 @@
         <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>74</v>
@@ -11991,13 +11991,13 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12048,7 +12048,7 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>75</v>
@@ -12066,7 +12066,7 @@
         <v>74</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12100,16 +12100,16 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12159,7 +12159,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -12171,13 +12171,13 @@
         <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -12211,7 +12211,7 @@
         <v>84</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>203</v>
@@ -12220,7 +12220,7 @@
         <v>204</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>205</v>
@@ -12284,7 +12284,7 @@
         <v>74</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>74</v>
@@ -12655,13 +12655,13 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12712,7 +12712,7 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>75</v>
@@ -12730,7 +12730,7 @@
         <v>74</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>74</v>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12764,16 +12764,16 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -12823,7 +12823,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -12835,13 +12835,13 @@
         <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>74</v>
@@ -12875,7 +12875,7 @@
         <v>84</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>203</v>
@@ -12884,7 +12884,7 @@
         <v>204</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N105" t="s" s="2">
         <v>205</v>
@@ -12948,7 +12948,7 @@
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>74</v>
@@ -13208,7 +13208,7 @@
         <v>84</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>269</v>
@@ -13426,7 +13426,7 @@
         <v>84</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>274</v>
@@ -13535,7 +13535,7 @@
         <v>84</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>277</v>
@@ -13753,13 +13753,13 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13810,7 +13810,7 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -13828,7 +13828,7 @@
         <v>74</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -13862,16 +13862,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -13921,7 +13921,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -13933,13 +13933,13 @@
         <v>74</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
@@ -13973,7 +13973,7 @@
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>203</v>
@@ -13982,7 +13982,7 @@
         <v>204</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>205</v>
@@ -14046,7 +14046,7 @@
         <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>74</v>
@@ -14086,7 +14086,7 @@
         <v>84</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>287</v>
@@ -14304,7 +14304,7 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>293</v>

--- a/StructureDefinition-cdm-practitioner-bundle.xlsx
+++ b/StructureDefinition-cdm-practitioner-bundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4233" uniqueCount="320">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-practitioner-bundle</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-practitioner-bundle</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect bundle used to package Common Data Model practitioner resources for data ingestion</t>
+    <t>LinuxForHealth bundle used to package Common Data Model practitioner resources for data ingestion</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>A container for a collection of resources.</t>
-  </si>
-  <si>
-    <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -972,7 +968,7 @@
     <t>Practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {http://ibm.com/fhir/cdm/StructureDefinition/cdm-practitioner}
+    <t xml:space="preserve">Practitioner {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-practitioner}
 </t>
   </si>
   <si>
@@ -995,7 +991,7 @@
     <t>PractitionerRole</t>
   </si>
   <si>
-    <t xml:space="preserve">PractitionerRole {http://ibm.com/fhir/cdm/StructureDefinition/cdm-practitioner-role}
+    <t xml:space="preserve">PractitionerRole {http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-practitioner-role}
 </t>
   </si>
   <si>
@@ -1581,16 +1577,16 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>74</v>
@@ -1598,7 +1594,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1609,28 +1605,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1680,13 +1676,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1709,7 +1705,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1720,25 +1716,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1789,19 +1785,19 @@
         <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1818,7 +1814,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1829,7 +1825,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1841,13 +1837,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1898,25 +1894,25 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>74</v>
@@ -1927,11 +1923,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -1950,16 +1946,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1997,19 +1993,19 @@
         <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -2021,13 +2017,13 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>74</v>
@@ -2038,7 +2034,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2049,28 +2045,28 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2120,19 +2116,19 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -2149,7 +2145,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2160,28 +2156,28 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2231,19 +2227,19 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>74</v>
@@ -2260,7 +2256,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2271,28 +2267,28 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2342,19 +2338,19 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
@@ -2371,7 +2367,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2379,31 +2375,31 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J10" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2453,7 +2449,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2465,7 +2461,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2502,19 +2498,19 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2540,31 +2536,31 @@
         <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2576,7 +2572,7 @@
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
@@ -2593,7 +2589,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2613,19 +2609,19 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2651,31 +2647,31 @@
         <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2687,7 +2683,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -2704,7 +2700,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2715,28 +2711,28 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2786,19 +2782,19 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -2815,7 +2811,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2826,7 +2822,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2838,16 +2834,16 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2873,43 +2869,43 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -2926,7 +2922,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2937,28 +2933,28 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3008,19 +3004,19 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>74</v>
@@ -3029,15 +3025,15 @@
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3045,31 +3041,31 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3095,60 +3091,60 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3159,28 +3155,28 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3230,19 +3226,19 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
@@ -3251,15 +3247,15 @@
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3270,28 +3266,28 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3341,19 +3337,19 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3370,7 +3366,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3390,19 +3386,19 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3452,7 +3448,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3464,7 +3460,7 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3481,7 +3477,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3492,7 +3488,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3504,13 +3500,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3561,25 +3557,25 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3590,11 +3586,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3613,16 +3609,16 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3672,7 +3668,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3684,13 +3680,13 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3701,11 +3697,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3718,25 +3714,25 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3785,7 +3781,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3797,13 +3793,13 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3814,7 +3810,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3822,28 +3818,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3894,19 +3890,19 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
@@ -3923,7 +3919,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3931,28 +3927,28 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4003,19 +3999,19 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
@@ -4032,7 +4028,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4040,7 +4036,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>76</v>
@@ -4052,16 +4048,16 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4100,19 +4096,19 @@
         <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AB25" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AC25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4124,7 +4120,7 @@
         <v>74</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>74</v>
@@ -4141,7 +4137,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4152,7 +4148,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -4164,13 +4160,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4221,25 +4217,25 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4250,11 +4246,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4273,16 +4269,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4332,7 +4328,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4344,13 +4340,13 @@
         <v>74</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4361,11 +4357,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4378,25 +4374,25 @@
         <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4445,7 +4441,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4457,13 +4453,13 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4474,7 +4470,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4494,16 +4490,16 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4554,7 +4550,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4566,7 +4562,7 @@
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
@@ -4583,7 +4579,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4594,28 +4590,28 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4665,19 +4661,19 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
@@ -4694,7 +4690,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4705,25 +4701,25 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4774,13 +4770,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4803,7 +4799,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4814,25 +4810,25 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4883,19 +4879,19 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>74</v>
@@ -4912,7 +4908,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4923,7 +4919,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
@@ -4935,13 +4931,13 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4992,25 +4988,25 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -5021,11 +5017,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5044,16 +5040,16 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5103,7 +5099,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5115,13 +5111,13 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5132,11 +5128,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5149,25 +5145,25 @@
         <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5216,7 +5212,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5228,13 +5224,13 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5245,7 +5241,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5256,28 +5252,28 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5303,14 +5299,14 @@
         <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5327,19 +5323,19 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
@@ -5356,7 +5352,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5367,28 +5363,28 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J37" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5438,19 +5434,19 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>74</v>
@@ -5467,7 +5463,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5478,25 +5474,25 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5547,19 +5543,19 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>74</v>
@@ -5576,7 +5572,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5587,7 +5583,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5599,13 +5595,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5656,25 +5652,25 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5685,11 +5681,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5708,16 +5704,16 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5767,7 +5763,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -5779,13 +5775,13 @@
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5796,11 +5792,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5813,25 +5809,25 @@
         <v>74</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5880,7 +5876,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5892,13 +5888,13 @@
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5909,7 +5905,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5917,28 +5913,28 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5965,14 +5961,14 @@
         <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>74</v>
       </c>
@@ -5989,19 +5985,19 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
@@ -6018,7 +6014,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6026,31 +6022,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6100,19 +6096,19 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6129,7 +6125,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6140,25 +6136,25 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6209,19 +6205,19 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
@@ -6238,7 +6234,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6249,25 +6245,25 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6318,19 +6314,19 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
@@ -6347,7 +6343,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6358,25 +6354,25 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6427,19 +6423,19 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
@@ -6456,7 +6452,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6467,25 +6463,25 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6536,19 +6532,19 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
@@ -6565,7 +6561,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6576,25 +6572,25 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6645,19 +6641,19 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>74</v>
@@ -6674,7 +6670,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6685,7 +6681,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -6697,13 +6693,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6754,25 +6750,25 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6783,11 +6779,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6806,16 +6802,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6865,7 +6861,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -6877,13 +6873,13 @@
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6894,11 +6890,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6911,25 +6907,25 @@
         <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
@@ -6978,7 +6974,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -6990,13 +6986,13 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -7007,7 +7003,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7015,28 +7011,28 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7087,19 +7083,19 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
@@ -7116,7 +7112,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7127,25 +7123,25 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7196,19 +7192,19 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>74</v>
@@ -7225,7 +7221,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7236,28 +7232,28 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7307,19 +7303,19 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>74</v>
@@ -7336,7 +7332,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7347,28 +7343,28 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7418,19 +7414,19 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>74</v>
@@ -7447,7 +7443,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7458,28 +7454,28 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7529,13 +7525,13 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -7558,38 +7554,38 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7640,7 +7636,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7652,7 +7648,7 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
@@ -7669,7 +7665,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7680,7 +7676,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7692,13 +7688,13 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7749,25 +7745,25 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -7778,11 +7774,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7801,16 +7797,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7860,7 +7856,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7872,13 +7868,13 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -7889,11 +7885,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7906,25 +7902,25 @@
         <v>74</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N60" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -7973,7 +7969,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -7985,13 +7981,13 @@
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8002,7 +7998,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8022,16 +8018,16 @@
         <v>74</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8082,7 +8078,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8094,7 +8090,7 @@
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>74</v>
@@ -8111,7 +8107,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8122,28 +8118,28 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J62" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8193,19 +8189,19 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>74</v>
@@ -8222,7 +8218,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8233,7 +8229,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8245,13 +8241,13 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8302,25 +8298,25 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AJ63" t="s" s="2">
+      <c r="AK63" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8331,7 +8327,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8342,25 +8338,25 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8411,19 +8407,19 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
@@ -8440,7 +8436,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8451,7 +8447,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8463,13 +8459,13 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8520,25 +8516,25 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>74</v>
@@ -8549,11 +8545,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8572,16 +8568,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8631,7 +8627,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8643,13 +8639,13 @@
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>74</v>
@@ -8660,11 +8656,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8677,25 +8673,25 @@
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -8744,7 +8740,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8756,13 +8752,13 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>74</v>
@@ -8773,7 +8769,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8784,28 +8780,28 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J68" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8831,14 +8827,14 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
       </c>
@@ -8855,19 +8851,19 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>74</v>
@@ -8884,7 +8880,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8895,28 +8891,28 @@
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J69" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -8966,19 +8962,19 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>74</v>
@@ -8995,7 +8991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9006,25 +9002,25 @@
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9075,19 +9071,19 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
@@ -9104,7 +9100,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9115,7 +9111,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
@@ -9127,13 +9123,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9184,25 +9180,25 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>74</v>
@@ -9213,11 +9209,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9236,16 +9232,16 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K72" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K72" t="s" s="2">
+      <c r="L72" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9295,7 +9291,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9307,13 +9303,13 @@
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>74</v>
@@ -9324,11 +9320,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9341,25 +9337,25 @@
         <v>74</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N73" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9408,7 +9404,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9420,13 +9416,13 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>74</v>
@@ -9437,7 +9433,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9445,28 +9441,28 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9493,14 +9489,14 @@
         <v>74</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y74" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9517,19 +9513,19 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>74</v>
@@ -9546,7 +9542,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9554,31 +9550,31 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J75" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9628,19 +9624,19 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
@@ -9657,7 +9653,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9668,25 +9664,25 @@
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J76" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9737,19 +9733,19 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>74</v>
@@ -9766,7 +9762,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9777,25 +9773,25 @@
         <v>75</v>
       </c>
       <c r="F77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9846,19 +9842,19 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>74</v>
@@ -9875,7 +9871,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9886,25 +9882,25 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9955,19 +9951,19 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>74</v>
@@ -9984,7 +9980,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9995,25 +9991,25 @@
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10064,19 +10060,19 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>74</v>
@@ -10093,7 +10089,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10104,25 +10100,25 @@
         <v>75</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10173,19 +10169,19 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>74</v>
@@ -10202,7 +10198,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10213,7 +10209,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>74</v>
@@ -10225,13 +10221,13 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10282,25 +10278,25 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -10311,11 +10307,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10334,16 +10330,16 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K82" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K82" t="s" s="2">
+      <c r="L82" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
@@ -10393,7 +10389,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10405,13 +10401,13 @@
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>74</v>
@@ -10422,11 +10418,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10439,25 +10435,25 @@
         <v>74</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>74</v>
@@ -10506,7 +10502,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
@@ -10518,13 +10514,13 @@
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>74</v>
@@ -10535,7 +10531,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10543,28 +10539,28 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F84" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10615,19 +10611,19 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>74</v>
@@ -10644,7 +10640,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10655,25 +10651,25 @@
         <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J85" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10724,19 +10720,19 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>74</v>
@@ -10753,7 +10749,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10764,28 +10760,28 @@
         <v>75</v>
       </c>
       <c r="F86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10835,19 +10831,19 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>74</v>
@@ -10864,7 +10860,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10875,28 +10871,28 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J87" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -10946,19 +10942,19 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>74</v>
@@ -10975,7 +10971,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10986,28 +10982,28 @@
         <v>75</v>
       </c>
       <c r="F88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11057,13 +11053,13 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
@@ -11086,38 +11082,38 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I89" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F89" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J89" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11168,7 +11164,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11180,7 +11176,7 @@
         <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>74</v>
@@ -11197,7 +11193,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11208,7 +11204,7 @@
         <v>75</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>74</v>
@@ -11220,13 +11216,13 @@
         <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -11277,25 +11273,25 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>74</v>
@@ -11306,11 +11302,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11329,16 +11325,16 @@
         <v>74</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -11388,7 +11384,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -11400,13 +11396,13 @@
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>74</v>
@@ -11417,11 +11413,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11434,25 +11430,25 @@
         <v>74</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -11501,7 +11497,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -11513,13 +11509,13 @@
         <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>74</v>
@@ -11530,7 +11526,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11550,16 +11546,16 @@
         <v>74</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11610,7 +11606,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -11622,7 +11618,7 @@
         <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>74</v>
@@ -11639,7 +11635,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11650,28 +11646,28 @@
         <v>75</v>
       </c>
       <c r="F94" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I94" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J94" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -11721,19 +11717,19 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>74</v>
@@ -11750,7 +11746,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11761,7 +11757,7 @@
         <v>75</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>74</v>
@@ -11773,13 +11769,13 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K95" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K95" t="s" s="2">
+      <c r="L95" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11830,25 +11826,25 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AJ95" t="s" s="2">
+      <c r="AK95" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -11859,7 +11855,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11870,25 +11866,25 @@
         <v>75</v>
       </c>
       <c r="F96" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I96" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J96" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -11939,19 +11935,19 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>74</v>
@@ -11968,7 +11964,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11979,7 +11975,7 @@
         <v>75</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>74</v>
@@ -11991,13 +11987,13 @@
         <v>74</v>
       </c>
       <c r="J97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K97" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K97" t="s" s="2">
+      <c r="L97" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -12048,25 +12044,25 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK97" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>74</v>
@@ -12077,11 +12073,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12100,16 +12096,16 @@
         <v>74</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12159,7 +12155,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -12171,13 +12167,13 @@
         <v>74</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>74</v>
@@ -12188,11 +12184,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12205,25 +12201,25 @@
         <v>74</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>74</v>
@@ -12272,7 +12268,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -12284,13 +12280,13 @@
         <v>74</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>74</v>
@@ -12301,7 +12297,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12312,28 +12308,28 @@
         <v>75</v>
       </c>
       <c r="F100" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I100" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J100" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12359,14 +12355,14 @@
         <v>74</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="Y100" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="Z100" t="s" s="2">
         <v>74</v>
       </c>
@@ -12383,19 +12379,19 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>74</v>
@@ -12412,7 +12408,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12423,28 +12419,28 @@
         <v>75</v>
       </c>
       <c r="F101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J101" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -12494,19 +12490,19 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>74</v>
@@ -12523,7 +12519,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12534,25 +12530,25 @@
         <v>75</v>
       </c>
       <c r="F102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I102" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J102" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12603,19 +12599,19 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>74</v>
@@ -12632,7 +12628,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12643,7 +12639,7 @@
         <v>75</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>74</v>
@@ -12655,13 +12651,13 @@
         <v>74</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K103" t="s" s="2">
+      <c r="L103" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12712,25 +12708,25 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK103" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>74</v>
@@ -12741,11 +12737,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12764,16 +12760,16 @@
         <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K104" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K104" t="s" s="2">
+      <c r="L104" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
@@ -12823,7 +12819,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>75</v>
@@ -12835,13 +12831,13 @@
         <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>74</v>
@@ -12852,11 +12848,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -12869,25 +12865,25 @@
         <v>74</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N105" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>74</v>
@@ -12936,7 +12932,7 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>75</v>
@@ -12948,13 +12944,13 @@
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>74</v>
@@ -12965,7 +12961,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -12973,28 +12969,28 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F106" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J106" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13021,14 +13017,14 @@
         <v>74</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X106" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="Y106" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y106" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="Z106" t="s" s="2">
         <v>74</v>
       </c>
@@ -13045,19 +13041,19 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>74</v>
@@ -13074,7 +13070,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13082,31 +13078,31 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I107" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F107" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J107" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
@@ -13156,19 +13152,19 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>74</v>
@@ -13185,7 +13181,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13196,25 +13192,25 @@
         <v>75</v>
       </c>
       <c r="F108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J108" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13265,19 +13261,19 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>74</v>
@@ -13294,7 +13290,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13305,25 +13301,25 @@
         <v>75</v>
       </c>
       <c r="F109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I109" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J109" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13374,19 +13370,19 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>74</v>
@@ -13403,7 +13399,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13414,25 +13410,25 @@
         <v>75</v>
       </c>
       <c r="F110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I110" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J110" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -13483,19 +13479,19 @@
         <v>74</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>74</v>
@@ -13512,7 +13508,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13523,25 +13519,25 @@
         <v>75</v>
       </c>
       <c r="F111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I111" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J111" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -13592,19 +13588,19 @@
         <v>74</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>74</v>
@@ -13621,7 +13617,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -13632,25 +13628,25 @@
         <v>75</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J112" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13701,19 +13697,19 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>74</v>
@@ -13730,7 +13726,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13741,7 +13737,7 @@
         <v>75</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>74</v>
@@ -13753,13 +13749,13 @@
         <v>74</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13810,25 +13806,25 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK113" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>74</v>
@@ -13839,11 +13835,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -13862,16 +13858,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K114" t="s" s="2">
+      <c r="L114" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -13921,7 +13917,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -13933,13 +13929,13 @@
         <v>74</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>74</v>
@@ -13950,11 +13946,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -13967,25 +13963,25 @@
         <v>74</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L115" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L115" t="s" s="2">
+      <c r="M115" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N115" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>74</v>
@@ -14034,7 +14030,7 @@
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -14046,13 +14042,13 @@
         <v>74</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>74</v>
@@ -14063,7 +14059,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14071,28 +14067,28 @@
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I116" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F116" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J116" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
@@ -14143,19 +14139,19 @@
         <v>74</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>74</v>
@@ -14172,7 +14168,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14183,25 +14179,25 @@
         <v>75</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -14252,19 +14248,19 @@
         <v>74</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>74</v>
@@ -14281,7 +14277,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14292,28 +14288,28 @@
         <v>75</v>
       </c>
       <c r="F118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I118" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J118" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14363,19 +14359,19 @@
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>74</v>
@@ -14392,7 +14388,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14403,28 +14399,28 @@
         <v>75</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J119" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14474,19 +14470,19 @@
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>74</v>
@@ -14503,7 +14499,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14514,28 +14510,28 @@
         <v>75</v>
       </c>
       <c r="F120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I120" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J120" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
@@ -14585,13 +14581,13 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -14614,7 +14610,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14625,31 +14621,31 @@
         <v>75</v>
       </c>
       <c r="F121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I121" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="G121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>84</v>
-      </c>
       <c r="J121" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="L121" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>74</v>
@@ -14698,19 +14694,19 @@
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>74</v>
